--- a/va_facility_data_2025-02-20/Auburn VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Auburn%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Auburn VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Auburn%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R63a3a8a085934d4e8fbe96127c6f8540"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rc3eee9c8de0c42f0bc7acf054617e88b"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R25989444b7cd46d78a47e1e2db36edc5"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R78b75b65c03a4db3993d06c70f499425"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R4d9b5d0496424e8eb709aba9d9c6ac99"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rdd959d8a792d4887bb7d0aa583e07fa6"/>
   </x:sheets>
 </x:workbook>
 </file>
